--- a/Dashboard_data.xlsx
+++ b/Dashboard_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{80FF15BE-4E18-4430-9C55-72BCE5927822}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAF58F7-2D28-4789-A9BD-D40FEB331099}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_summary" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="190">
   <si>
     <t>SN</t>
   </si>
@@ -86,6 +86,12 @@
     <t>Project Dates</t>
   </si>
   <si>
+    <t>Resource</t>
+  </si>
+  <si>
+    <t>Milestone billing amount</t>
+  </si>
+  <si>
     <t>Scope</t>
   </si>
   <si>
@@ -99,6 +105,15 @@
   </si>
   <si>
     <t>Challenges / Risks</t>
+  </si>
+  <si>
+    <t>Update Date</t>
+  </si>
+  <si>
+    <t>Profit_YTD MIS</t>
+  </si>
+  <si>
+    <t>Profit_FY24-25_MIS</t>
   </si>
   <si>
     <t>INVEST INDIA</t>
@@ -128,21 +143,6 @@
 Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
   </si>
   <si>
-    <t>Monthly billing from July-23 to Jun-25 done. 
-Application maintenance and regular CR deployment.
-339 tasks out of 376 tasks are in production as on date
-Pragati meetings module is developed by CMS. These meetings are being chaired by Prime Minister of India.
-AWS Optimization has been done on all PMG environments as instructed by PMG team
-// Security Audit was done &amp; agency has raised total 26 points out of which there are High Priority: 6 Tasks , 5 tasks are currently in progress. 1 task is pending client approval before initiation. -- meeting was scheduled for further discussion with client on 26 Jun &amp; only 3 high priority points to be taken up. Already included in task list &amp; are in progress.</t>
-  </si>
-  <si>
-    <t>Maintenance activities
-Deployment of 1 task -- on UAT
-10 Tasks In progress. (+ 7 Tasks in QA Testing, +4 in designing, +9 under estimation &amp; + 6 Tasks in to do)
-Due payment collection. (Mar to Jun 25)
-Replacement of Bimal Kalsa on priority (LWD 31 Jul 25- extended her for third time)</t>
-  </si>
-  <si>
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
@@ -165,23 +165,6 @@
 Update and maintain the various modules and functionalities developed as a part of the “Integrated Swachhatam” portal
 update and maintain all mobile applications developed
 Resolve all the bugs, issues and queries raised for these developed functionalities</t>
-  </si>
-  <si>
-    <t>20 resources on-boarded. (13 resources from GAIA – Tech Partner)
-Payment received till Apr’25. Invoicing done Jun’25.
-Daily Waste reporting mobile app development &amp; testing done, bugs/feedback changes in progress.
-Campaign ‘SABB 2.0’ is Live.
-UWM Dashboard development done - addition of FSTP plant &amp; SOAK on ULB login in progress. 
-EOI Form testing complete &amp; ready for production.
-DR Activity-Plan received from Hitachi. -- on hold as of now.</t>
-  </si>
-  <si>
-    <t>Maintenance activities: Daily ULB support, Website changes ongoing.
-Support to GFC &amp; ODF-Field Assessment ongoing. Issue Resolution.
-Dashboard revamp in portal. Domain sbmurban.org to be renewed
-Mobile App to be developed for Daily data entry at plan level.
-New SBM Dashboard- Legacy waste section – data verification ongoing.
-DR activity-- on hold</t>
   </si>
   <si>
     <t>Angular, AWS Cloud, mySQl, Posgresql, NodeJS, Java, MongoDB, RESTAPI, HTML, PHP, MicroService, Quicksight,CSS, Flutter</t>
@@ -209,38 +192,7 @@
 Application Developers, Technical Support (helpdesk) – 6 resource each</t>
   </si>
   <si>
-    <t>Kick-off meeting with Customer done.
-Infra provided to resources by ORGI.
-Shadow &amp; reverse Shadow phase completed.
-Independent development – Started &amp; In Progress
-KT Activity – Completed
-Handover from HPE current SI: Completed
-Billing done from Apr-24 till May-25 ( New rates applicable from 2nd April 25)
-Received 37 L payment on 22-Jul-25. (cleared till Apr25)
-Daily Birth/Death count monitoring report - automation done
-Addition of Download link for the android app on communication email for RE/SR done
-Provision to authenticate the Aadhaar number for RE/SR done
-iOS App Live in App Store
-Correction in Adoption Case done
-Bihar Jurisdiction splitting done -- data shifting in progress.
-provision made for General Public -- can now download birth / death certificate for self &amp; family (adhar authenticated)</t>
-  </si>
-  <si>
-    <t>4 states will join CRS portal (all certificates will be issued from CRS)  -- Gujarat, Pondicherry, Telangana &amp; Delhi.
-Gujarat onboarding to be completed by 15th Aug.
-registrar payment reconciliation report work in progress.
-Audit log - for cyber forensics in case of fraudulent certificate generation.
-eSign on Android App
-Billing for Jun-25 after client returns &amp; approves attendance.
-Indore IMC Zonal registar creation.
-Replacement of Vikas Kohli (DB resource) -- customer has mailed to replace him.</t>
-  </si>
-  <si>
     <t>Node JS, Android, iOS, ORACLE database , REST, API design, HTML, CSS, JavaScript, JSON, IIS/ Apache, Linux, Aadhaar Vault, NSDL PayGov, C-DAC</t>
-  </si>
-  <si>
-    <t>Bank account details in GeM portal &amp; in invoice is different -- intimatedd sales to correct the same.
-Replacement of Vikas Kohli (DB resource) -- customer has mailed to replace him.</t>
   </si>
   <si>
     <t>ECCS</t>
@@ -271,21 +223,10 @@
 Extension PO – 242.7 L (for 4 month till 31st Mar 2025}</t>
   </si>
   <si>
-    <t>Transition completed for ECCS 2.0 from 1st Jan’25 till 14th Feb'25
-JAS’24 Payment received. 12L short payment. Mail has been initiated. Follow up going on from Sales team
-Extension received till 31st Mar 2025 on 28th Jan for 242.7 L
-Exit phase (1st Jan 25 to 14th Feb 25) invoicing done of 82 L.
-OND’24 Payment of 182 L received on 29-Mar-2025
-84 L billed from Ramp-up cost (CST + Helpdesk).</t>
-  </si>
-  <si>
-    <t>Transition phase completed on 31-Mar-2025.
-Collection of due payments. Collection of 12 L short payment.
-SLA data for Exit phase uploaded on 08-Apr-25. MA tracker received, replied with artifacts &amp; approvals.
-Exit phase invoice payment of 72 L received on 14-Jul-25</t>
-  </si>
-  <si>
     <t>Java Struts</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>ECCS NEW</t>
@@ -308,22 +249,6 @@
 Version Upgrade
 Architecture Upgrade
 User Interface Upgrade</t>
-  </si>
-  <si>
-    <t>Revised SLA methodology document shared and meetings ongoing to finalize
-Feb’25-Mar’25 &amp; AMJ25 bills submitted, data upload pending as PGA informed to finalize SLA document.
-POC on new technology upgrade has been completed and VAPT initiated.
-Approval received for SLA 4.8 -- henceforth TCS tickets for shifting traffic will not be logged under ECCS. (25-Jun-25), which were creating change in severity.</t>
-  </si>
-  <si>
-    <t>SLA methodology to be finalized with Customer to avoid penalties. SLA methdology finalisation discussions in progress with PGA &amp; WZU.
-On-boarding of 1 Java Developer.
-Ramp-up requirement for tech upgrade + NCTC resource to finalise.
-Review JAS-25 Saadhit plan and take WZU agreement as multiple activities ongoing.
-Implement CR's in JIRA  -- to automate SLA computation for enhancement related SLA's
-Attendance system changes to be done from TCS -- followup ongoing
-CSAT automated mails follow-up.
-SLA clock changes for 5.3 from 24hours to 16 hours (WZU approved, awaiting changes in HPSM)</t>
   </si>
   <si>
     <t>Java Struts, For upgrade - TBD</t>
@@ -361,28 +286,9 @@
 CR – 17 L as &amp; when required</t>
   </si>
   <si>
-    <t>System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed. Same is billed &amp; payment collected for SRS &amp; UAT milestone.
-GitHub &amp; JIRA implemented.
-Go-Live done on 19th May 2025.
-Helpdesk set-up done.
-Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
-  </si>
-  <si>
-    <t>Bug fixes &amp; service support. (UAT Feedbacks Admin - 40, Legal- 25, HRMS-588) -- timeline to be provided to PFRDA.
-Odoo licences to be provided to PFRDA.
-Daily stand-up meetings to be started which includes PM. Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership.
-VAPT to be done, after incorporating UAT feedback points.
-Training to users.
-Payment collection for implementation milestone.
-Billing for remaining milestones.</t>
-  </si>
-  <si>
     <t>Spring Boot, Odoo, React JS, Apache, PostgreSQL, Postman, Moodle, Figma, Ubuntu, AWS Cloud, Flutter, React, Node JS</t>
   </si>
   <si>
-    <t>Odoo licences to be provided</t>
-  </si>
-  <si>
     <t>DIC NHAI</t>
   </si>
   <si>
@@ -393,9 +299,6 @@
   </si>
   <si>
     <t>Start Date (PO) : 13-Nov-24 :: End Date (PO) : 12-Nov-27</t>
-  </si>
-  <si>
-    <t>36+9</t>
   </si>
   <si>
     <t>As per achievment, Phase 1 - 321 L</t>
@@ -406,20 +309,6 @@
 Track 1 (2m) - 10%, Track 2 (4m) – 20%, Track 3 (6m) – 20%, Track 4 (8m) – 50%
 Every phase of 6 months.
 Deployment of proposed 33 resources. (+5 in phase 2)</t>
-  </si>
-  <si>
-    <t>DIC team along with CMS team working on this project
-Total 9/10 modules KT received.  Drone module BRD yet to finalise.
-7/9 – development complete. UAT Done.
-After initial failed demo, second Demo for developed 7 Modules with bug fixing &amp; feedback resolution completed on 16-Jun-2025.
-Demo at NHAI offices - Dwarika, Gaziabad, sohna, bagpat, Faridabad, Jaipur done.
-changes after security audit are being implemented. Go-live of 7 completed modules done on 17th Jul 2025. -- awaiting official sign-off.</t>
-  </si>
-  <si>
-    <t>Remaining resource on-boarding of Helpdesk (1 YTJ + 1 open position)
-Testing of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
-Next Phase-2 modules decision -- onboarding &amp; payment module discussion done. Brics module requirement discussion to be done.
-Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
   </si>
   <si>
     <t>No-SQL, Ruby, Python, Java, HTML, CSS, JavaScript, Angular, React, GIS/ML, Cloud - TBD, Node JS, Rest API</t>
@@ -447,36 +336,6 @@
 Deployment of 16 resources on need basis.</t>
   </si>
   <si>
-    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
-15 resources onboarded out of 15 – additional on need basis approval received from customer.
-2 VC Support addnl order received -- onboarded.
-1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
-Billing till Jun-25 done.
-Payment of 127 L received on 27-Jun-2025 (till Apr-25)
-1. KM – Consuming SHC data through API provided by division. First developing the module for showing the data.
-1.1 User Management – Surveyor level Data target set. Now start progress report on senior profile
-1.2 Understading new UM portal design
-2. Natural Farming :
-2.1 Developing Edit/Delete functionality
-2.2 Working on Client observation points.
-3. NFSM – Hold due to KKMS portal launching
-4. Agristack- DCS new design development started.
-5. KKMS – Portal has launched today, so doing demo.
-6. Concurrent – Doing work on observations
-7. Inventory – Project done. Now deploying on client system locally. They will connect it on server
-8. Krishi Unnati –Working on last 2 models.</t>
-  </si>
-  <si>
-    <t>Agristack – Showing the progress to Division
-NFSM – Resume working on API consuming
-KM- GIS – Cluster count API development will start,  Improve speed 
-KM-UM –  Adding and giving Export option in NMEO-OP on Agencies.
-NF – Starting working on Given Observation points
-KYS -  Deliver next week
-Inventory – changes to complete by 15th.
-Concurrent – Project review by client</t>
-  </si>
-  <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
@@ -511,28 +370,7 @@
 Provision – as &amp; when required.</t>
   </si>
   <si>
-    <t>ICCC and upgradation of IT and non IT infra. Project earlier managed by HP. CMS O &amp; M started from 1st October 24
-HOTO &amp; GAP report submitted on 30th Sep &amp; acknowledgement copy received from Customer.
-FAT &amp; UAT completed &amp; sign-off received.
-33 manpower deployment done.
-ICCC &amp; DC upgradation component approval recd. &amp; material delivered at site.
-Payment of 240 L received. + 117 L received on 4th July.
-Manpower &amp; O&amp;M Invoice submitted to client. Billing done till Apr-25 &amp; AMC Q2 (FMA-25).
-Invoicing for upgradation milestone done 324 L. Installation complete.
-Jun25 manpower draft invoice submitted to customer.</t>
-  </si>
-  <si>
-    <t>Maintenance activities.
-ISO Certification - consultant is on site &amp; work is in progress
-Critical issues list identified and shared to HO. New Switch, Router, WLD display - in progress.
-Insurance to be renewed.
-Min wages letter to be submitted to client.</t>
-  </si>
-  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Min wage hikes for resources - poses a risk</t>
   </si>
   <si>
     <t>Kanpur SC O&amp;M</t>
@@ -553,20 +391,6 @@
     <t>O&amp;M support, AMC of all BOQ. Maintenance of Hardware, Network, Software, ICT Infrastructure, L1 , L2, L3 &amp; OEM Support of all field solutions, DC &amp; DR and applications for 42 months ( 50 junctions )
 BG for 762 L to be submitted, advance payment of 2 Qtrs will be released  after signing SOW. BG would be returned back to CMS after 4 Qtrs.
 PBG of 3% of balance of TCV (137 L) to be submitted at end of Qtr 4.</t>
-  </si>
-  <si>
-    <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
-24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withold payment -- KSCL will not pay to TechM (re-imbursement) &amp; has to be paid by TechM to CMS
-Billing done for OND24 &amp; JFM25 Qtr.
-Neat-Park application demonstration to client is carried out on 23rd Oct 2024. Client has suggested few points, Team has incorporated the same in .Payment integration is in progress (Bank details awaited from client - will share after VAPT). -- VAPT in progress.
-EMS OEM onboarding done - OEM Team repairing work in progress.
-Collected ~ 632 L till JFM-25</t>
-  </si>
-  <si>
-    <t>Smart Parking- Payment integration is in progress.(bank details awaited) -- after VAPT
-Security Workshop to be conducted, Renewal of Licenses afterwards.
-Reimbursement of recurring charges from TechM
-Release of 25% retention/withheld amount -- In progress.</t>
   </si>
   <si>
     <t>Delay in release of withheld amount (25%), recurring charges reimbursement.</t>
@@ -597,19 +421,6 @@
 Integration with existing system.</t>
   </si>
   <si>
-    <t>Support Started from 1st July 2024.
-Installation is complete for FRS &amp; UHF system for main gate.
-Received WO for kk &amp; cruise gate on 3rd Oct 24, to be completed in 3 months (03-Jan-2024)-- Taken exclusion as both Gates not ready.
-KK Gate - 2 lanes system installed on temporary basis. Cabling provision is done for installation at both KK &amp; cruise gate.
-CAMC Billing done till May-25.</t>
-  </si>
-  <si>
-    <t>Regular maintenance activities.
-Support activities after Go-Live of UHF Reader, HF Reader, and FRS applications, Go-live expected.
-Payment collection for existing infra part after Go-Live. (~159 L)
-Payment collection for Feb-25 to May-25 CAMC invoices.</t>
-  </si>
-  <si>
     <t>Vadodara Traffic</t>
   </si>
   <si>
@@ -633,6 +444,341 @@
 Integration with existing system.
 5 year comprehensive maintenance service.
 Payment 100% after successful installation.</t>
+  </si>
+  <si>
+    <t>Field work for remaining locations, after approval. O&amp;M started from 01 Feb 2025. - support activities.
+First Qtr billing(~8 L) after Capex final billing (~47L) -- after aspects delivery.</t>
+  </si>
+  <si>
+    <t>VADODARA ICCC</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 01-Aug-24 :: End Date (PO) : 31-Jul-29</t>
+  </si>
+  <si>
+    <t>7 +10(shared) / 17</t>
+  </si>
+  <si>
+    <t>100.99 L</t>
+  </si>
+  <si>
+    <t>O&amp;M support, AMC of all BOQ. Maintenance of Hardware, Network, Software, ICT Infrastructure, L1 , L2, L3 &amp; OEM Support of all field solutions, DC &amp; DR and applications for 60 months
+Deployment of manpower : Project Manager (1), Technical Expert (4) [Network and Security, Video management, server-storage, CCC software], Electrician (4), Field staff (8)  
+PBG of 3%</t>
+  </si>
+  <si>
+    <t>Contract agreement signed .
+PBG of 3 % submitted 
+All resources has onboarded.
+BOM and other detail shared with purchase team for finalization of contract.
+First Qtr payment received ~ 80 L on 28-May-25
+Third quarter invoice submitted.</t>
+  </si>
+  <si>
+    <t>Start maintenance activity as per SLA 
+Third quarter invoice submitted.
+Payment collection. (2nd &amp; 3rd Qtr)</t>
+  </si>
+  <si>
+    <t>ISCDL</t>
+  </si>
+  <si>
+    <t>SITC – 9 M, O&amp;M – 5 Yr</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 01-Nov-22 :: End Date (PO) : 31-Aug-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.3 L + Taxes (O&amp;M) </t>
+  </si>
+  <si>
+    <t>Implementation of (ITMS) for 50 Junctions with Centralised Monitoring + 50 additional services
+Payment Milestone wise
+5% Inception Report, 10% requirement Study, 30% material delivery &amp; commissioning of 1 corridor ( 15 Junctions ) , 30% remaining delivery ( 35 junctions + 20 SVD + 20 ATCC and 10 TVD ) &amp; commissioning, 25% Go Live.
+O &amp; M : 5 Years
+CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
+  </si>
+  <si>
+    <t>IREL</t>
+  </si>
+  <si>
+    <t>SITC –  12 Months , O&amp;M -  4 Yrs</t>
+  </si>
+  <si>
+    <t>Milestonewise</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 29-Oct-18 :: End Date (PO) : 30-Sep-25</t>
+  </si>
+  <si>
+    <t>As per Achievement</t>
+  </si>
+  <si>
+    <t>Development of  Integrated ERP System (IITS) (326 L) 
+FMS including support &amp; maintenance (147 L)
+Cloud Services (574 L)
+Change Request (63 K)</t>
+  </si>
+  <si>
+    <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
+  </si>
+  <si>
+    <t>Guwahati SC</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>1 Year + O&amp;M</t>
+  </si>
+  <si>
+    <t>10% of capex - Submission of Survey report, built report, project deployment plan.
+50% - supply of material on pro-rata basis
+15% - installation of material on pro-rata basis
+15% - commissioning on pro-rata basis
+5% - Go-live on pro-rata basis for individual system
+5% - Overall Go-live of complete project.</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 10-Feb-25 :: End Date (PO) : 09-Feb-26</t>
+  </si>
+  <si>
+    <t>MCS - L&amp;T</t>
+  </si>
+  <si>
+    <t>6 months</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
+  </si>
+  <si>
+    <t>72.86 L</t>
+  </si>
+  <si>
+    <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
+  </si>
+  <si>
+    <t>Daily Operators shifts support.</t>
+  </si>
+  <si>
+    <t>JNPA</t>
+  </si>
+  <si>
+    <t>EMS</t>
+  </si>
+  <si>
+    <t>6 months + 5 Yr CAMC</t>
+  </si>
+  <si>
+    <t>Product Cost Payable on Product Delivery - 70%
+ICT Charges - 30%</t>
+  </si>
+  <si>
+    <t>Start Date (PO) : 07-Apr-25 :: End Date (PO) : 04-Oct-25</t>
+  </si>
+  <si>
+    <t>1 (shared)</t>
+  </si>
+  <si>
+    <t>131.78 L</t>
+  </si>
+  <si>
+    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
+a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
+b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
+c) Energy billing system that coverers consumer’s energy monitoring and billing
+#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
+#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
+  </si>
+  <si>
+    <t>Monthly billing from July-23 to Jul-25 done. 
+Application maintenance and regular CR deployment.
+354 tasks out of 401 tasks are in production as on date.
+Pragati meetings module is developed by CMS - These meetings are being chaired by Prime Minister of India.
+AWS Optimization has been done on all PMG environments as instructed by PMG team.
+Security Audit was done &amp; agency has raised total 26 points, out of which 7 high priority tasks are completed &amp; awaiting further action from Auditor.
+Customer wants AI module to be integrated, pitching our AI solution &amp; will get additional order if selected.</t>
+  </si>
+  <si>
+    <t>Maintenance activities :.
+Deployment of 2 task -- on UAT.
+7 Tasks In progress (+ 9 Tasks in QA Testing, +4 in designing, +11 under estimation &amp; + 14 Tasks in to do).
+Due payment collection (Apr to Jul 25).
+Replacement of Bimal Kalsa on priority.</t>
+  </si>
+  <si>
+    <t>20 resources on-boarded (13 resources from GAIA – Tech Partner).
+Payment received till May’25.
+Invoicing done till Jul’25.
+Daily Waste Reporting mobile app made live for pilot of 50+ ULB’s.
+Campaign ‘SABB 2_0’ is Live.
+UWM Dashboard development done - addition of FSTP plant &amp; SOAK on ULB login in progress. 
+EOI Form testing complete - through which volunteer's can register themselves to work for SBM.
+New SSJ (Swachh Survekshan Jodi) page created for City pairing on website - in this one weak &amp; one strong city (on scores of swachh survekshan) will be paired &amp; they will cordinate to improve their processes.</t>
+  </si>
+  <si>
+    <t>Maintenance activities: Daily ULB support, Website changes ongoing.
+Support to GFC &amp; ODF-Field Assessment ongoing. Issue Resolution.
+Dashboard revamp in portal.
+SS Handover planned with IPSOS in the next week.</t>
+  </si>
+  <si>
+    <t>Kick-off meeting with Customer done.
+Infra provided to resources by ORGI.
+Shadow &amp; reverse Shadow phase completed.
+Independent development – Started &amp; In Progress.
+KT Activity – Completed.
+Handover from HPE current SI: Completed.
+Billing done from Apr-24 till Jun-25 ( New rates applicable from 2nd April 25).
+Received payment till Apr25.
+Daily Birth/Death count monitoring report - automation done.
+Addition of Download link for the android app on communication email for RE/SR done.
+Provision to authenticate the Aadhaar number for RE/SR done.
+iOS App Live in App Store.
+Correction in Adoption Case done.
+Bihar Jurisdiction splitting done -- data shifting in progress.
+Provision made for General Public -- can now download birth &amp; death certificate for self &amp; family (adhar authenticated).
+Replacement of Vikas Kohli (DB resource) -- Roopali Goel joined on 13th Aug.</t>
+  </si>
+  <si>
+    <t>4 states will join CRS portal (all certificates will be issued from CRS)  -- Gujarat, Pondicherry, Telangana &amp; Delhi.
+Gujarat onboarding to be completed by 15th Aug -- now extended till 31st Aug.
+Registrar payment reconciliation report work in progress.
+Audit log - for cyber forensics in case of fraudulent certificate generation.
+eSign on Android App.
+Billing for Jul-25 after client approves attendance.
+Indore IMC Zonal registar creation.</t>
+  </si>
+  <si>
+    <t>Transition completed for ECCS 2 from 1st Jan’25 till 14th Feb'25.
+JAS’24 Payment received; 12L short payment - Mail has been initiated; Follow up going on from Sales team.
+Extension received till 31st Mar 2025 on 28th Jan for 243 L.
+Exit phase (1st Jan 25 to 14th Feb 25) invoicing done of 82 L.
+OND’24 Payment of 182 L received on 29-Mar-2025.
+84 L billed from Ramp-up cost (CST + Helpdesk).
+Exit phase invoice payment of 72 L received on 14-Jul-25.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collection of due payments &amp; 12 L short payment.
+</t>
+  </si>
+  <si>
+    <t>Revised SLA methodology document shared and meetings ongoing to finalize
+Feb’25-Mar’25 &amp; AMJ25 bills submitted, data upload pending as PGA informed to finalize SLA document.
+POC on new technology upgrade has been completed and VAPT initiated.
+Approval received for SLA 4'8 -- henceforth TCS tickets for shifting traffic will not be logged under ECCS (25-Jun-25), which were creating change in severity.
+SLA clock changes for 5'3 from 24hours to 16 hours (WZU approved) &amp; changes done in HPSM.</t>
+  </si>
+  <si>
+    <t>SLA methodology to be finalized with Customer to avoid penalties - SLA methdology finalisation discussions in progress with PGA &amp; WZU.
+Ramp-up requirement for tech upgrade.
+Implement CR's in JIRA  -- to automate SLA computation for enhancement related SLA's
+Attendance system changes to be done from TCS -- followup ongoing
+CSAT automated mails follow-up.
+Collection of due payment.</t>
+  </si>
+  <si>
+    <t>System study / SRS/ FRS; UAT &amp; implementation for payment milestones completed. Same is billed &amp; payment collected for SRS &amp; UAT milestone.
+Go-Live done on 19th May 2025.
+Helpdesk set-up done.
+Mobile App (1) –Complete. iOS app will be shared after dev account is received.</t>
+  </si>
+  <si>
+    <t>Bug fixes &amp; service support (UAT Feedbacks resolved : Admin - 0 out of 41, Legal- 21 out of 25, IT-10 out of 19, HRMS-529 out of 585, F&amp;A-35 out of 50).
+Daily stand-up meetings started which includes PM; Also 7 key resource should seat at PFRDA for 1 month -- requested by PFRDA as per meeting on 23rd July between CMS &amp; PFRDA leadership - the same is in process.
+VAPT to be done - VAPT environment created &amp; shared with AKS IT for further process.
+Payment collection for implementation milestone.
+Billing for remaining milestones.</t>
+  </si>
+  <si>
+    <t>38+4</t>
+  </si>
+  <si>
+    <t>DIC team along with CMS team working on this project
+Total 9 modules in part 1 &amp;  Total 8 modules in part 2 including Drone module (moved from part 1 to part 2).
+9 out of 9 – development complete &amp; UAT done for part 1.
+Go-live of 7 completed modules done on 17th Jul 2025 -- awaiting official sign-off.</t>
+  </si>
+  <si>
+    <t>Production deployment of remaining 2 modules - Road Safety Audit &amp; toilet Maintenance.
+Next Part-2 modules decision -- requirement analysis in progress for 7 modules; yet to start for employee directory &amp; drone module.
+Post Go-live activities -- SOP creation of helpdesk support, user manual etc.</t>
+  </si>
+  <si>
+    <t>35 resources onboarded out of 35, including 1 additional Team Lead approval from customer.
+15 resources onboarded out of 15 – additional on need basis approval received from customer.
+2 VC Support addnl order received -- onboarded.
+1 Drupal &amp; 1 SEO developer onboarded on temporary basis (FOC basis)
+Billing till Jul-25 done.
+Payment of 136 L received on 26-Aug-2025 (till Jun-25)
+1] KM (Krishi Mapper) –.
+Applying Scheduler on Telangana State API for NMEO-OP.
+Developing new GIS Dashboard with New API.
+Optimizing current GIS Dashboard.
+GIS – Implemented Scheme table and graph. 
+Implementing FY wise filter in GIS.
+Consumed Maha DBT API for onboarding on GIS.
+2] Natural Farming -.
+Fixing users highlighted issue.
+Area Cover record on Home page - Done.
+3] Krishi Unnati – Mother/Daily sanction module: Working.
+4] Inventory – Project done. Customer has started feeding data &amp; using it.</t>
+  </si>
+  <si>
+    <t>1] NFSM – Make Agristack data live on Krishi Mapper.
+2] KM -.
+Optimizing the API for performance improvement.
+GIS – Implementing FY, then data will reflect accordingly.
+Fixing UM bugs.
+3] NF – .
+Work on Given Observation points.
+Implementing Area Covered &amp; Cluster option.
+Providing Data Import option.</t>
+  </si>
+  <si>
+    <t>ICCC and upgradation of IT and non IT infra; Project earlier managed by HP - CMS O &amp; M started from 1st October 24.
+HOTO &amp; GAP report submitted on 30th Sep &amp; acknowledgement copy received from Customer.
+FAT &amp; UAT completed &amp; sign-off received.
+33 manpower deployment done.
+ICCC &amp; DC upgradation component approval recd &amp; material delivered at site.
+Payment of 117 L received on 4th July.
+Manpower &amp; O&amp;M Invoice submitted to client; Billing done till Apr-25 &amp; AMC Q2 (FMA-25), MJJ-25 PI submitted for Manpower &amp; O&amp;M.
+Invoicing for upgradation milestone done 324 L, Installation complete.</t>
+  </si>
+  <si>
+    <t>Maintenance activities.
+ISO Certification - consultant visited &amp; required documentation work is in progress.
+Critical issues list identified and shared to HO - WLD (Water Leak Detection) display &amp; AMC for - Tape Library, Server, Storage  - in progress.
+Min wages letter to be submitted to client.
+Replacement of UI/UX devloper (Harsh Pathak - Resigned).</t>
+  </si>
+  <si>
+    <t>Min wage hikes for resources - poses a risk.</t>
+  </si>
+  <si>
+    <t>Jan 23 to Mar 25 (Total 9 quarters payment released-75%).
+24 July meeting scheduled with commissioner to discuss issues related to ICCC critical issues &amp; withold payment -- KSCL will not pay to TechM (re-imbursement) &amp; has to be paid by TechM to CMS.
+Billing done for OND24 &amp; JFM25 Qtr.
+Neat-Park application demonstration to client is carried out on 23rd Oct 2024; Client has suggested few points, Team has incorporated the same - Payment integration is in progress (Bank details awaited from client - will share after VAPT) -- VAPT completed &amp; feedback points also closed on 28-Aug-25.
+EMS OEM onboarding done - OEM Team repairing work in progress.
+Collected ~ 632 L till JFM-25.</t>
+  </si>
+  <si>
+    <t>Smart Parking- Payment integration is in progress (bank details awaited) --  VAPT done &amp; feedback points closed on 28-Aug-25.
+Reimbursement of recurring charges from TechM.
+Release of 25% retention/withheld amount -- In progress.</t>
+  </si>
+  <si>
+    <t>Support Started from 1st July 2024.
+Installation is complete for FRS &amp; UHF system for main gate.
+Received WO for kk &amp; cruise gate on 3rd Oct 24, to be completed in 3 months (03-Jan-2024) -- Taken exclusion as both Gates not ready from NMPT.
+KK Gate - 2 lanes system installed on temporary basis; Cabling provision is done for installation at both KK &amp; cruise gate.
+CAMC Billing done till May-25.</t>
+  </si>
+  <si>
+    <t>Regular maintenance activities.
+Support activities for UHF Reader, HF Reader, and FRS applications; Official Go-live expected but payment for the milestone is received from NMPT (177 L ~ on 22-Aug-25).
+Payment collection for Apr-25 to May-25 CAMC invoices.</t>
   </si>
   <si>
     <t>Site survey done for all 28 Junction and submitted to Client
@@ -641,270 +787,93 @@
 O &amp; M from 1st Feb 2025 reveived.
 10/44 Jn upgradation permission received.
 10/10 upgradation completed.
-Balance location -- 302 Aspects additional to be supplied -- awaiting material (EDD - Tentative 20 Aug)</t>
-  </si>
-  <si>
-    <t>Field work for remaining locations, after approval. O&amp;M started from 01 Feb 2025. - support activities.
-First Qtr billing(~8 L) after Capex final billing (~47L) -- after aspects delivery.</t>
-  </si>
-  <si>
-    <t>VADODARA ICCC</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 01-Aug-24 :: End Date (PO) : 31-Jul-29</t>
-  </si>
-  <si>
-    <t>7 +10(shared) / 17</t>
-  </si>
-  <si>
-    <t>100.99 L</t>
-  </si>
-  <si>
-    <t>O&amp;M support, AMC of all BOQ. Maintenance of Hardware, Network, Software, ICT Infrastructure, L1 , L2, L3 &amp; OEM Support of all field solutions, DC &amp; DR and applications for 60 months
-Deployment of manpower : Project Manager (1), Technical Expert (4) [Network and Security, Video management, server-storage, CCC software], Electrician (4), Field staff (8)  
-PBG of 3%</t>
-  </si>
-  <si>
-    <t>Contract agreement signed .
-PBG of 3 % submitted 
-All resources has onboarded.
-BOM and other detail shared with purchase team for finalization of contract.
-First Qtr payment received ~ 80 L on 28-May-25
-Third quarter invoice submitted.</t>
-  </si>
-  <si>
-    <t>Start maintenance activity as per SLA 
-Third quarter invoice submitted.
-Payment collection. (2nd &amp; 3rd Qtr)</t>
-  </si>
-  <si>
-    <t>ISCDL</t>
-  </si>
-  <si>
-    <t>SITC – 9 M, O&amp;M – 5 Yr</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 01-Nov-22 :: End Date (PO) : 31-Aug-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">43.3 L + Taxes (O&amp;M) </t>
-  </si>
-  <si>
-    <t>Implementation of (ITMS) for 50 Junctions with Centralised Monitoring + 50 additional services
-Payment Milestone wise
-5% Inception Report, 10% requirement Study, 30% material delivery &amp; commissioning of 1 corridor ( 15 Junctions ) , 30% remaining delivery ( 35 junctions + 20 SVD + 20 ATCC and 10 TVD ) &amp; commissioning, 25% Go Live.
-O &amp; M : 5 Years
-CAPEX ~20.37 Cr   &amp; OPEX ~ 8.66 Cr</t>
-  </si>
-  <si>
-    <t>Phase-1 of 14 Junctions are Live – Payment collected (1039 L)
+Balance location -- 302 Aspects additional to be supplied -- awaiting material (EDD - Tentative 12 Sep)</t>
+  </si>
+  <si>
+    <t>Phase-1 of 14 Junctions are Live – Payment collected (1039 L).
 Phase-2 – 16  Junctions completed &amp; invoices submitted for payment.
 Phase-3 –10 Junctions and 44 Locations delivered &amp; invoices submitted for payment.
-Revised CAPEX now capped at 16Cr for work completion and payment processing.
-Junction &amp; Location on hold are removed from Capex calculation
+Received go ahead on 26-Aug-25 for 8 ITMS &amp; 10 ATCS Junction (~4 Cr).
+Revised CAPEX now capped at 16Cr (+4 Cr) for work completion and payment processing.
 Reimbursement claims submitted for payment collection.
 O &amp; M requested from 1st Sep 2024.
-Collection for due payments approx.
-500 L – Phase 2 and 3 along with electricity and connectivity reimbursement
-New project of approx 600 L is expected by mid of July.</t>
-  </si>
-  <si>
-    <t>Go-Live &amp; O&amp;M maintenance activities.
-Payment collection 243 L Capex + 110 L misc payment.</t>
-  </si>
-  <si>
-    <t>ISCDL server</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>IREL</t>
-  </si>
-  <si>
-    <t>SITC –  12 Months , O&amp;M -  4 Yrs</t>
-  </si>
-  <si>
-    <t>Milestonewise</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 29-Oct-18 :: End Date (PO) : 30-Sep-25</t>
-  </si>
-  <si>
-    <t>As per Achievement</t>
-  </si>
-  <si>
-    <t>Development of  Integrated ERP System (IITS) (326 L) 
-FMS including support &amp; maintenance (147 L)
-Cloud Services (574 L)
-Change Request (63 K)</t>
-  </si>
-  <si>
-    <t>1.  April Payroll Re-run for HO Employees - Re-processed April payroll for 6 Head Office employees and shared the updated payslips along with IT computation details with the client.​
-2. Income Tax Review and Issue Resolution - Reviewed income tax calculations to identify discrepancies related to perquisite tax, employee declarations, computation logic, and components considered under annual gross salary. Shared findings with Pranesh and Kailash. Multiple issues have been successfully addressed and resolved.​
-3. CMS Email ID Configuration for Attendance - Followed up with IREL to update the CMS email ID for receiving daily attendance data across all units. Despite escalation by IREL's Nirdesh Kumar, no updates have been received yet.​
-4. TA/DA Module Demo - Conducted a demo of the TA/DA module for IREL HR representative Mr. Mohit Jain</t>
-  </si>
-  <si>
-    <t>1. May a. Income Tax Discrepancy Discussion with IREL Payroll Team - Share our detailed tax calculation in Excel format to help identify discrepancies in perquisite tax computation.​
-2. Resolution of Remaining Income Tax Computation Issues - Continue efforts to resolve outstanding issues related to income tax declarations and mismatches in annual gross salary components.​
-3. Ongoing Client Support and Coordination - Provide continuous support to the client by resolving queries, clarifying payroll-related processes, and assisting in workflow improvements.​</t>
-  </si>
-  <si>
-    <t>Core Java, BIRD tool, postgre, ESDS cloud</t>
-  </si>
-  <si>
-    <t>Guwahati SC</t>
-  </si>
-  <si>
-    <t>East</t>
-  </si>
-  <si>
-    <t>1 Year + O&amp;M</t>
-  </si>
-  <si>
-    <t>10% of capex - Submission of Survey report, built report, project deployment plan.
-50% - supply of material on pro-rata basis
-15% - installation of material on pro-rata basis
-15% - commissioning on pro-rata basis
-5% - Go-live on pro-rata basis for individual system
-5% - Overall Go-live of complete project.</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 10-Feb-25 :: End Date (PO) : 09-Feb-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SITC -- 20 ECB, 20 PA, 10 ENV SENSOR, 10 VMD, 1 GIS Software
-5 years O&amp;M </t>
+Collection for due payments approx 500 L – Phase 2 and 3 along with electricity and connectivity reimbursement.</t>
+  </si>
+  <si>
+    <t>Go-Live expected by 13-Sep-25 &amp; O&amp;M maintenance activities.
+Due payment collection.
+Expected new order of 20 entry exit upgradation ANPR.</t>
+  </si>
+  <si>
+    <t>HRMS &amp; Payroll – .
+1] April Payroll Re-run for HO Employees - Due to the dump of production into the staging server, data and settings were impacted; Consequently, the April payroll needs to be re-run in preparation for the upcoming payroll demo scheduled next week.
+1_a] Work is ongoing on creating pay contracts and updating employee data.
+1_b] During the April payroll re-run, several issues were identified, including:.
+o    EPF calculation mismatch for specific employees.
+o    Incorrect pays lip calculations (certain allowances excluded).
+o    Residual perks being calculated annually, whereas the amount is payable once in the next financial year.
+1_c] These issues have been shared with the development team for corrections. Awaiting their updates before proceeding with the April payroll run.
+2] Identified Issues &amp; Coordination with Development Team – Post production dump into staging and the April payroll re-run, multiple issues were identified; Data updation has been initiated to support:
+2_a] April payroll re-run.
+2_b] Preparation of May payroll in staging.
+2_c] Demo execution in production.
+Finance – .
+1] Finance bugs fixing for the finance &amp; payroll integration setup - completed</t>
+  </si>
+  <si>
+    <t>HRMS &amp; Payroll – .
+1] Completion of April Payroll Re-Run &amp; May Payroll Demo - A trial run for the May payroll in IITS; The focus will be on completing the April payroll re-run and conducting the May payroll demo.
+2] Ongoing Client Support and Coordination - Continue providing daily client support, resolving payroll-related queries, and assisting in optimizing payroll operations to improve process efficiency.
+MM -.
+1] Add 2 Add 2 decimal in stock values for all transaction –Staging testing &amp; production deployment.
+2] Need to store pending status in all transaction except PO/WO –UAT testing &amp; production deployment.
+3] Cost Centre is not showing in SES accounting screen – QA testing &amp; UAT testing.
+4] Delete Items Provision in update mode in SES screen – QA testing &amp; UAT testing.
+5] Order type is blank in across all units – QA testing &amp; UAT testing.
+Finance -.
+1] Asset Management and Budgeting -modules in progress.
+2] Data Migration - TB of units.
+3] Payroll - Finance demo to the client.
+4] Finance bugs fixing for the Chavara demo feedback.</t>
+  </si>
+  <si>
+    <t>SITC for --.
+1] 20 ECB.
+2] 20 PA.
+3] 10 ENV SENSOR.
+4] 10 VMD.
+5] 1 GIS Software.
+-- 5 years O&amp;M after Go-live for supplied BOQ.</t>
   </si>
   <si>
     <t>Site Survey done &amp; report submitted to customer.
-GIS software invoicing done 315 L &amp;  installation completed. Configuration in process. (SRS &amp; FRS finalisation awaited)
-PA, ECB, EVS, EVS Poles (10 nos.) materials delivered
+GIS software invoicing done 315 L &amp;  installation completed - Configuration in process (SRS &amp; FRS finalisation awaited).
+PA, ECB, EVS, EVS Poles (10 nos) materials delivered.
 EVS, PA-ECB, GIS, VMS software delivered. 
-1. Change request letter for VMD submitted by Honeywell to GSC -- approval received.
-2. VMD Structure &amp; Pole drawing approved by GSC.
-3. EVS pole foundation 10/10 ready. Pole will be installed after curing.
-5. Warehouse finalization done.
-340 L received on 22-May-25.</t>
-  </si>
-  <si>
-    <t>1. EVS pole installtion after curing.
-2. ECB encloser foundation also pending due to J-bolt and template unavailable as on date.
-3. ECB encloser, VMD display (expected 27-Jul), VMD pole &amp; structure, Cables and accessories to be delivered.
-4. FRS &amp; SRS for GIS software to submit -- In progress (under PMC review).
-5. Collection of due payment ~106 L.
-6. VMD structure J bolt will be received by 28-Jul.</t>
-  </si>
-  <si>
-    <t>Chennai Port - Video Wall</t>
-  </si>
-  <si>
-    <t>60 Days + 1Yr Warr + 3Yr AMC</t>
-  </si>
-  <si>
-    <t>Supply of all materials - 40%
-Installation and integration with CCTV Surv. Centre &amp; Port Command Centre - 30%
-Handover, Training &amp; uninterrupted operation of min 15 days - 30 %</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 12-Mar-25 :: End Date (PO) : 11-May-25</t>
-  </si>
-  <si>
-    <t>100% of Material &amp; Installation cost</t>
-  </si>
-  <si>
-    <t>SITC -- Video Wall, AV Controller, Fire Alarm System, Access Control System (ACS), Networking Points and UPS
-Interface with Port Command Centre and CCTV Surveillance Centre
-Project Management
-Training and Documentation
-1 Year Warranty
-3 Year AMC</t>
-  </si>
-  <si>
-    <t>All work completed. Go-Live completed on 23-Apr-2025. Received 100 % payment as per milestone.
-Payment as per milestone Supply of all materials - 40% - received on 11-Apr-25 of Rs. 109 L
-Installation and integration with CCTV Surv. Centre &amp; Port Command Centre - 30% received on 02-May-25 of Rs. 77.33 L
-Handover, Training &amp; uninterrupted operation of min 15 days - 30 % received on 23-May-25 of Rs. 77.33 L</t>
-  </si>
-  <si>
-    <t>Warranty support activities by vendor</t>
-  </si>
-  <si>
-    <t>MCS - L&amp;T</t>
-  </si>
-  <si>
-    <t>6 months</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 01-Mar-25 :: End Date (PO) : 31-Aug-25</t>
-  </si>
-  <si>
-    <t>72.86 L</t>
-  </si>
-  <si>
-    <t>Viewing Manpower in 4 shifts including backup to cover 203 shifts daily.</t>
-  </si>
-  <si>
-    <t>Billing for Mar-25 to Jun-25 done.</t>
-  </si>
-  <si>
-    <t>Daily Operators shifts support.</t>
-  </si>
-  <si>
-    <t>JNPA</t>
-  </si>
-  <si>
-    <t>EMS</t>
-  </si>
-  <si>
-    <t>6 months + 5 Yr CAMC</t>
-  </si>
-  <si>
-    <t>Product Cost Payable on Product Delivery - 70%
-ICT Charges - 30%</t>
-  </si>
-  <si>
-    <t>Start Date (PO) : 07-Apr-25 :: End Date (PO) : 04-Oct-25</t>
-  </si>
-  <si>
-    <t>1 (shared)</t>
-  </si>
-  <si>
-    <t>131.78 L</t>
-  </si>
-  <si>
-    <t>Design, Supply, Installation, Testing and Commissioning of web based enterprise energy and utility Management system with five years of Comprehensive Annual Maintenance Contract (CAMC)
-a) Complete built in energy monitoring system including power distribution monitoring of electrical &amp; utility energy &amp; consumption monitoring viz boundary level, process level and specific identified key areas.
-b) Demand management system that covers demand forecasting, scheduling and deviation monitoring w.r.t the schedule drawl
-c) Energy billing system that coverers consumer’s energy monitoring and billing
-#&gt;Functional Requirements/ Deliverables :  DATA ACQUISITION SYSTEM // DATA MANAGEMENT SYSTEM // DEMAND FORECASTING MODULE // Deviation Settlement Mechanism Module //Demand Management Module // Utility Billing Module – Electricity, Water &amp; Rental
-#&gt;Infrastructure Requirements: Server // Cloud Service (IaaS) // OS // DB // Networking</t>
-  </si>
-  <si>
-    <t>Material ordered &amp; Most of the materials received. Awaiting delivery of water meter (expected 21-July-25), ABT Meter (expected 30-Jul-25) to start installation work.
-Data required by software team is collected &amp; provided to stakeholders for further process.</t>
-  </si>
-  <si>
-    <t>Start of installation activity from 21-Jul-25</t>
-  </si>
-  <si>
-    <t>Profit_YTD MIS</t>
-  </si>
-  <si>
-    <t>Profit_FY24-25_MIS</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Update Date</t>
-  </si>
-  <si>
-    <t>Resource</t>
-  </si>
-  <si>
-    <t>Milestone billing amount</t>
+1] Change request letter for VMD submitted by Honeywell to GSC -- approval received.
+2] VMD Structure &amp; Pole drawing approved by GSC.
+3] EVS pole foundation 10/10 ready.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1] EVS pole installtion after curing.
+2] ECB encloser foundation &amp; VMD Foundation work in progress
+3] FRS &amp; SRS for GIS software to submit -- In progress (under PMC review).
+4] Collection of due payment.
+5] FAT for VMD pole is scheduled from 28 to 29-Aug-25 &amp; is in progress. </t>
+  </si>
+  <si>
+    <t>Billing for Mar-25 to Jul-25 done.</t>
+  </si>
+  <si>
+    <t>All Material delivered at site for inspection on delivery challan.
+Data required by software team is collected &amp; provided to stakeholders for further process.
+MFM meter installation &amp; communication architecture is completed; Water meter installation in progress.</t>
+  </si>
+  <si>
+    <t>Billing to be done post FAT for delivered material.
+Software configuration is in progress.
+Water meter installation.
+IOT SIM procurement for GPRS communication is in progress.</t>
   </si>
 </sst>
 </file>
@@ -1242,11 +1211,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1313,34 +1280,34 @@
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>200</v>
+        <v>16</v>
       </c>
       <c r="R1" t="s">
-        <v>201</v>
+        <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="T1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>196</v>
+        <v>24</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>197</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
@@ -1348,13 +1315,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E2" s="2">
         <v>840.24454680000008</v>
@@ -1381,43 +1348,43 @@
         <v>23.340126300000005</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N2" s="1">
         <v>0.67135220198491918</v>
       </c>
       <c r="O2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="Q2">
         <v>15</v>
       </c>
       <c r="R2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="T2" t="s">
-        <v>29</v>
+        <v>155</v>
       </c>
       <c r="U2" t="s">
-        <v>30</v>
+        <v>156</v>
       </c>
       <c r="V2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="W2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="X2" s="3">
-        <v>45862</v>
+        <v>45897</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.47857141487133537</v>
+        <v>0.58012380038870615</v>
       </c>
       <c r="Z2" s="1">
         <v>0.4323402397342212</v>
@@ -1428,13 +1395,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2">
         <v>1305.45</v>
@@ -1461,43 +1428,43 @@
         <v>36.262500000000003</v>
       </c>
       <c r="M3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N3" s="1">
         <v>0.52150537669003028</v>
       </c>
       <c r="O3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>38</v>
+        <v>157</v>
       </c>
       <c r="U3" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="V3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3" s="3">
-        <v>45863</v>
+        <v>45897</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.19000000000000039</v>
+        <v>0.19000000000000017</v>
       </c>
       <c r="Z3" s="1">
         <v>0.19000000008625473</v>
@@ -1508,76 +1475,76 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2">
         <v>849.8214484745763</v>
       </c>
       <c r="F4" s="2">
-        <v>339.04933570000003</v>
+        <v>368.45483099999984</v>
       </c>
       <c r="G4" s="2">
         <v>65</v>
       </c>
       <c r="H4" s="2">
-        <v>404.04933570000003</v>
+        <v>433.45483099999984</v>
       </c>
       <c r="I4" s="2">
         <v>38</v>
       </c>
       <c r="J4" s="2">
-        <v>510.77211277457627</v>
+        <v>481.36661747457646</v>
       </c>
       <c r="K4" s="2">
-        <v>85.534783499999975</v>
+        <v>114.94027879999997</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>29.405495299999998</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="1">
-        <v>0.39896537832575452</v>
+        <v>0.43356734718966405</v>
       </c>
       <c r="O4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
       <c r="U4" t="s">
+        <v>160</v>
+      </c>
+      <c r="V4" t="s">
         <v>48</v>
       </c>
-      <c r="V4" t="s">
-        <v>49</v>
-      </c>
-      <c r="W4" t="s">
-        <v>50</v>
+      <c r="W4">
+        <v>0</v>
       </c>
       <c r="X4" s="3">
-        <v>45863</v>
+        <v>45897</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.13778443351353142</v>
+        <v>0.22607225678680021</v>
       </c>
       <c r="Z4" s="1">
         <v>0.11942473989981339</v>
@@ -1588,13 +1555,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>2427.0572720338992</v>
@@ -1621,43 +1588,43 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N5" s="1">
         <v>0.79550498220506516</v>
       </c>
       <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>54</v>
       </c>
-      <c r="P5" t="s">
+      <c r="S5" t="s">
         <v>55</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
+        <v>161</v>
+      </c>
+      <c r="U5" t="s">
+        <v>162</v>
+      </c>
+      <c r="V5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" t="s">
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>45897</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="T5" t="s">
-        <v>58</v>
-      </c>
-      <c r="U5" t="s">
-        <v>59</v>
-      </c>
-      <c r="V5" t="s">
-        <v>60</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>45852</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>198</v>
       </c>
       <c r="Z5" s="1">
         <v>-0.17633052574372954</v>
@@ -1668,13 +1635,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E6" s="2">
         <v>2413.0259999999998</v>
@@ -1701,43 +1668,43 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1">
         <v>0.16546413092938081</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="Q6">
         <v>68</v>
       </c>
       <c r="R6" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" t="s">
+        <v>163</v>
+      </c>
+      <c r="U6" t="s">
+        <v>164</v>
+      </c>
+      <c r="V6" t="s">
+        <v>63</v>
+      </c>
+      <c r="W6" t="s">
         <v>64</v>
       </c>
-      <c r="S6" t="s">
-        <v>65</v>
-      </c>
-      <c r="T6" t="s">
-        <v>66</v>
-      </c>
-      <c r="U6" t="s">
-        <v>67</v>
-      </c>
-      <c r="V6" t="s">
-        <v>68</v>
-      </c>
-      <c r="W6" t="s">
-        <v>69</v>
-      </c>
       <c r="X6" s="3">
-        <v>45861</v>
+        <v>45897</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.41249203472650509</v>
+        <v>0.41621469835230751</v>
       </c>
       <c r="Z6" s="1">
         <v>0.33027289323308273</v>
@@ -1748,13 +1715,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E7" s="2">
         <v>1265.69472</v>
@@ -1781,46 +1748,46 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="N7" s="1">
         <v>0.34405265196966295</v>
       </c>
       <c r="O7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="Q7">
         <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s">
-        <v>77</v>
+        <v>165</v>
       </c>
       <c r="U7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="V7" t="s">
-        <v>79</v>
-      </c>
-      <c r="W7" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>45862</v>
+        <v>45897</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1828,13 +1795,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E8" s="2">
         <v>2186.2800000000002</v>
@@ -1861,43 +1828,43 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="N8" s="1">
         <v>7.4441517097535534E-2</v>
       </c>
       <c r="O8" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="P8" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s">
-        <v>85</v>
+        <v>167</v>
       </c>
       <c r="R8" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s">
-        <v>88</v>
+        <v>168</v>
       </c>
       <c r="U8" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="V8" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>45863</v>
+        <v>45897</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.34150000000000003</v>
+        <v>0.27640980757497513</v>
       </c>
       <c r="Z8" s="1">
         <v>0.32590705634920647</v>
@@ -1908,76 +1875,76 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2">
         <v>1606.08</v>
       </c>
       <c r="F9" s="2">
-        <v>361.38993049999999</v>
+        <v>429.26793049999998</v>
       </c>
       <c r="G9" s="2">
         <v>65</v>
       </c>
       <c r="H9" s="2">
-        <v>426.38993049999999</v>
+        <v>494.26793049999998</v>
       </c>
       <c r="I9" s="2">
         <v>171</v>
       </c>
       <c r="J9" s="2">
-        <v>1244.6900694999999</v>
+        <v>1176.8120695</v>
       </c>
       <c r="K9" s="2">
-        <v>249.86432500000001</v>
+        <v>317.74232499999999</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>67.878</v>
       </c>
       <c r="M9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N9" s="1">
-        <v>0.225013654674736</v>
+        <v>0.26727680470462245</v>
       </c>
       <c r="O9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="Q9" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="S9" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="T9" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="U9" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="V9" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>45862</v>
+        <v>45897</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.10999999989710685</v>
+        <v>0.11000001051303465</v>
       </c>
       <c r="Z9" s="1">
         <v>0.10999999996973608</v>
@@ -1988,13 +1955,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2">
         <v>1372.5805700000001</v>
@@ -2015,49 +1982,49 @@
         <v>975.48017980000009</v>
       </c>
       <c r="K10" s="2">
-        <v>41.282961400000005</v>
+        <v>41.282961400000012</v>
       </c>
       <c r="L10" s="2">
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="N10" s="1">
         <v>0.28930934830295613</v>
       </c>
       <c r="O10" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="S10" t="s">
-        <v>106</v>
+        <v>93</v>
       </c>
       <c r="T10" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="U10" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="V10" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="W10" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="X10" s="3">
-        <v>45863</v>
+        <v>45898</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.19540000029601468</v>
+        <v>0.19540000015149273</v>
       </c>
       <c r="Z10" s="1">
         <v>0.11441806775377272</v>
@@ -2068,13 +2035,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2">
         <v>5337.5</v>
@@ -2101,43 +2068,43 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="N11" s="1">
         <v>0.6428571428571429</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="Q11" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="S11" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="T11" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="V11" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="W11" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="X11" s="3">
-        <v>45863</v>
+        <v>45898</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.24999999999999989</v>
+        <v>0.25</v>
       </c>
       <c r="Z11" s="1">
         <v>0.51229508024724535</v>
@@ -2148,13 +2115,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2">
         <v>680.69294500000001</v>
@@ -2181,43 +2148,43 @@
         <v>-2.0912500000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N12" s="1">
         <v>0.35236380097930942</v>
       </c>
       <c r="O12" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>15</v>
       </c>
       <c r="R12" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="S12" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="T12" t="s">
-        <v>127</v>
+        <v>177</v>
       </c>
       <c r="U12" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="V12" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12" s="3">
-        <v>45863</v>
+        <v>45898</v>
       </c>
       <c r="Y12" s="1">
-        <v>-0.11870872784234798</v>
+        <v>-0.25967603526289684</v>
       </c>
       <c r="Z12" s="1">
         <v>0.12040585230689282</v>
@@ -2228,13 +2195,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E13" s="2">
         <v>1045.762712</v>
@@ -2261,43 +2228,43 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="N13" s="1">
         <v>0.6783589862783328</v>
       </c>
       <c r="O13" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="Q13" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="R13" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="S13" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="T13" t="s">
-        <v>136</v>
+        <v>179</v>
       </c>
       <c r="U13" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="V13" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13" s="3">
-        <v>45870</v>
-      </c>
-      <c r="Y13" s="1">
-        <v>0.17999995286985404</v>
+        <v>45898</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>57</v>
       </c>
       <c r="Z13" s="1">
         <v>0.18000000439604424</v>
@@ -2308,13 +2275,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E14" s="2">
         <v>2019.8763390000001</v>
@@ -2341,43 +2308,43 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="N14" s="1">
         <v>0.12168138848622852</v>
       </c>
       <c r="O14" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q14" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="R14" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="S14" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="T14" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="U14" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="V14" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>45870</v>
+        <v>45898</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.20489999985959539</v>
+        <v>0.20490000022684418</v>
       </c>
       <c r="Z14" s="1">
         <v>0.2046391013686556</v>
@@ -2388,13 +2355,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E15" s="2">
         <v>2903.04126</v>
@@ -2421,43 +2388,43 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="N15" s="1">
         <v>0.59318156563162339</v>
       </c>
       <c r="O15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="S15" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="T15" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="U15" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="V15" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <v>45855</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>198</v>
+        <v>45898</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0.2022725498365231</v>
       </c>
       <c r="Z15" s="1">
         <v>-0.204144834903355</v>
@@ -2468,76 +2435,79 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="E16" s="2">
-        <v>227.954342</v>
+        <v>1047.3630700000001</v>
       </c>
       <c r="F16" s="2">
-        <v>201.13131680000006</v>
+        <v>162.96677500000001</v>
       </c>
       <c r="G16" s="2">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H16" s="2">
-        <v>201.13131680000006</v>
+        <v>181.96677500000001</v>
       </c>
       <c r="I16" s="2">
-        <v>0</v>
+        <v>114.99999999999999</v>
       </c>
       <c r="J16" s="2">
-        <v>26.823025199999933</v>
+        <v>884.39629500000012</v>
       </c>
       <c r="K16" s="2">
-        <v>2.2352520999999999</v>
+        <v>0</v>
       </c>
       <c r="L16" s="2">
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="N16" s="1">
-        <v>0.88233158901619024</v>
+        <v>0.15559721329490833</v>
       </c>
       <c r="O16" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="P16" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>153</v>
+        <v>132</v>
+      </c>
+      <c r="Q16">
+        <v>23</v>
       </c>
       <c r="R16" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="S16" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="T16" t="s">
-        <v>153</v>
+        <v>182</v>
       </c>
       <c r="U16" t="s">
-        <v>153</v>
+        <v>183</v>
       </c>
       <c r="V16" t="s">
-        <v>153</v>
-      </c>
-      <c r="W16" t="s">
-        <v>153</v>
+        <v>135</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16" s="3">
+        <v>45898</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>198</v>
+        <v>57</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.49955487603133697</v>
+        <v>-9.5509698226650848</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.25">
@@ -2545,79 +2515,79 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>137</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="E17" s="2">
-        <v>1047.3630700000001</v>
+        <v>669.18430290000003</v>
       </c>
       <c r="F17" s="2">
-        <v>162.96677500000001</v>
+        <v>577.66532290000009</v>
       </c>
       <c r="G17" s="2">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
-        <v>181.96677500000001</v>
+        <v>577.66532290000009</v>
       </c>
       <c r="I17" s="2">
-        <v>114.99999999999999</v>
+        <v>325</v>
       </c>
       <c r="J17" s="2">
-        <v>884.39629500000012</v>
+        <v>91.518979999999942</v>
       </c>
       <c r="K17" s="2">
-        <v>0</v>
+        <v>262.51094999999998</v>
       </c>
       <c r="L17" s="2">
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="N17" s="1">
-        <v>0.15559721329490833</v>
+        <v>0.86323800542931128</v>
       </c>
       <c r="O17" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="P17" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="Q17">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
       <c r="S17" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="T17" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="U17" t="s">
-        <v>161</v>
-      </c>
-      <c r="V17" t="s">
-        <v>162</v>
+        <v>186</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>45863</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>198</v>
+        <v>45898</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0.36662132665084957</v>
       </c>
       <c r="Z17" s="1">
-        <v>-9.5509698226650848</v>
+        <v>0.20000000003501683</v>
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.25">
@@ -2625,64 +2595,64 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="C18" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="E18" s="2">
-        <v>669.18430290000003</v>
+        <v>437.16408000000001</v>
       </c>
       <c r="F18" s="2">
-        <v>577.66532290000009</v>
+        <v>361.02466950000002</v>
       </c>
       <c r="G18" s="2">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="H18" s="2">
-        <v>577.66532290000009</v>
+        <v>433.02466950000002</v>
       </c>
       <c r="I18" s="2">
-        <v>325</v>
+        <v>171</v>
       </c>
       <c r="J18" s="2">
-        <v>91.518979999999942</v>
+        <v>76.139410499999997</v>
       </c>
       <c r="K18" s="2">
-        <v>262.51094999999998</v>
+        <v>361.02466950000002</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>72.569237299999998</v>
       </c>
       <c r="M18" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="N18" s="1">
-        <v>0.86323800542931128</v>
+        <v>0.82583333356208044</v>
       </c>
       <c r="O18" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>227</v>
       </c>
       <c r="R18" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="T18" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="U18" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2691,13 +2661,13 @@
         <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>45863</v>
+        <v>45898</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.19999999999999984</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>0.20000000003501683</v>
+        <v>0.62624581052110095</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2705,31 +2675,31 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C19" t="s">
-        <v>121</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2">
-        <v>242.57214406779661</v>
+        <v>171.31355932203391</v>
       </c>
       <c r="F19" s="2">
-        <v>223.57214999999999</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <v>0</v>
       </c>
       <c r="H19" s="2">
-        <v>223.57214999999999</v>
+        <v>0</v>
       </c>
       <c r="I19" s="2">
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>18.999994067796621</v>
+        <v>171.31355932203391</v>
       </c>
       <c r="K19" s="2">
         <v>0</v>
@@ -2738,31 +2708,31 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="N19" s="1">
-        <v>0.92167281144002133</v>
+        <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
+        <v>151</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>152</v>
       </c>
       <c r="R19" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="S19" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="T19" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="U19" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2771,173 +2741,13 @@
         <v>0</v>
       </c>
       <c r="X19" s="3">
-        <v>45803</v>
+        <v>45898</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>8.0000000000000182E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>179</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E20" s="2">
-        <v>437.16408000000001</v>
-      </c>
-      <c r="F20" s="2">
-        <v>361.02466950000002</v>
-      </c>
-      <c r="G20" s="2">
-        <v>72</v>
-      </c>
-      <c r="H20" s="2">
-        <v>433.02466950000002</v>
-      </c>
-      <c r="I20" s="2">
-        <v>171</v>
-      </c>
-      <c r="J20" s="2">
-        <v>76.139410499999997</v>
-      </c>
-      <c r="K20" s="2">
-        <v>361.02466950000002</v>
-      </c>
-      <c r="L20" s="2">
-        <v>72.569237299999998</v>
-      </c>
-      <c r="M20" t="s">
-        <v>180</v>
-      </c>
-      <c r="N20" s="1">
-        <v>0.82583333356208044</v>
-      </c>
-      <c r="O20" t="s">
-        <v>25</v>
-      </c>
-      <c r="P20" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q20">
-        <v>228</v>
-      </c>
-      <c r="R20" t="s">
-        <v>182</v>
-      </c>
-      <c r="S20" t="s">
-        <v>183</v>
-      </c>
-      <c r="T20" t="s">
-        <v>184</v>
-      </c>
-      <c r="U20" t="s">
-        <v>185</v>
-      </c>
-      <c r="V20">
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>45863</v>
-      </c>
-      <c r="Y20" s="1">
-        <v>0.52931531225088957</v>
-      </c>
-      <c r="Z20" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>186</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
-      </c>
-      <c r="D21" t="s">
-        <v>187</v>
-      </c>
-      <c r="E21" s="2">
-        <v>171.31355932203391</v>
-      </c>
-      <c r="F21" s="2">
-        <v>0</v>
-      </c>
-      <c r="G21" s="2">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2">
-        <v>171.31355932203391</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>188</v>
-      </c>
-      <c r="N21" s="1">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>189</v>
-      </c>
-      <c r="P21" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>191</v>
-      </c>
-      <c r="R21" t="s">
-        <v>192</v>
-      </c>
-      <c r="S21" t="s">
-        <v>193</v>
-      </c>
-      <c r="T21" t="s">
-        <v>194</v>
-      </c>
-      <c r="U21" t="s">
-        <v>195</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>45863</v>
-      </c>
-      <c r="Y21" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="Z21" s="1" t="s">
-        <v>198</v>
+        <v>57</v>
+      </c>
+      <c r="Z19" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/Dashboard_data.xlsx
+++ b/Dashboard_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cmscomputersindia-my.sharepoint.com/personal/avdhoot_rao_cms_co_in/Documents/D Drive/streamlit_dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AAF58F7-2D28-4789-A9BD-D40FEB331099}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="11_F25DC773A252ABDACC104845099961E05BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BB86A89-2C49-4E86-94BF-296085CFB8DD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,12 +137,6 @@
     <t>23.34 L</t>
   </si>
   <si>
-    <t>Hiring of Professionals for --
-Application Development and Maintenance – 36 months 
-Front End and Back End developer – 8 Resources
-Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each</t>
-  </si>
-  <si>
     <t>NodeJS , HTML5/CSS , JS , React , Springboot Elastic, PostGreSQL , MySQL , MongoDB, Postman, API &amp; SSO integration</t>
   </si>
   <si>
@@ -326,16 +320,6 @@
     <t>67.88 L</t>
   </si>
   <si>
-    <t>Deployment of technical resources for application development, customization and maint. for ‘digital agriculture division, DA&amp;FW’
-Deployment of required 34 resources.
-1 resource each – Team Lead, Sr. Mobile Dev., tester, BA, content management expert.
-2 resource each – Full stack/Sr. Dev., UI/UX, API dev., mobile dev., dashboard expert, e-office support
-3 resource each – Sr. Front end dev, VC support
-5 resource – Full stack dev. (&gt;6 to &lt;10 yrs.)
-6 resource – Full stack dev. (&gt;3 to &lt;6 yrs.)
-Deployment of 16 resources on need basis.</t>
-  </si>
-  <si>
     <t>C#, ASP.NET, MVC, .NET Core, Visual Studio, HTML5, CSS3, RESTful API, MERN, flutter, react Native, MS SQL, e-Office</t>
   </si>
   <si>
@@ -615,12 +599,6 @@
 UWM Dashboard development done - addition of FSTP plant &amp; SOAK on ULB login in progress. 
 EOI Form testing complete - through which volunteer's can register themselves to work for SBM.
 New SSJ (Swachh Survekshan Jodi) page created for City pairing on website - in this one weak &amp; one strong city (on scores of swachh survekshan) will be paired &amp; they will cordinate to improve their processes.</t>
-  </si>
-  <si>
-    <t>Maintenance activities: Daily ULB support, Website changes ongoing.
-Support to GFC &amp; ODF-Field Assessment ongoing. Issue Resolution.
-Dashboard revamp in portal.
-SS Handover planned with IPSOS in the next week.</t>
   </si>
   <si>
     <t>Kick-off meeting with Customer done.
@@ -874,6 +852,29 @@
 Software configuration is in progress.
 Water meter installation.
 IOT SIM procurement for GPRS communication is in progress.</t>
+  </si>
+  <si>
+    <t>Hiring of Professionals for --.
+Application Development and Maintenance – 36 months.
+Front End and Back End developer – 8 Resources.
+Full Stack developer, Solution Architect, QA Engineer, UI/UX designer, business analyst, QA automation tester, Project Manager – 1 resource each.</t>
+  </si>
+  <si>
+    <t>Maintenance activities:.
+Daily ULB support, Website changes ongoing.
+Support to GFC &amp; ODF-Field Assessment ongoing. Issue Resolution.
+Dashboard revamp in portal.
+SS Handover planned with IPSOS in the next week.</t>
+  </si>
+  <si>
+    <t>Deployment of technical resources for application development, customization and maintenance for ‘digital agriculture division, DA&amp;FW’
+Deployment of required 34 resources.
+1 resource each – Team Lead, Sr Mobile Developer, tester, BA, content management expert.
+2 resource each – Full stack/Sr Developer, UI/UX, API developer, mobile developer, dashboard expert, e-office support.
+3 resource each – Sr Front end developer, VC support
+5 resource – Full stack developer (&gt;6 to &lt;10 yrs.)
+6 resource – Full stack developer (&gt;3 to &lt;6 yrs.)
+Deployment of 16 resources on need basis.</t>
   </si>
 </sst>
 </file>
@@ -922,11 +923,12 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -1213,7 +1215,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1365,20 +1369,20 @@
       <c r="R2" t="s">
         <v>32</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="T2" t="s">
+        <v>153</v>
+      </c>
+      <c r="U2" t="s">
+        <v>154</v>
+      </c>
+      <c r="V2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" t="s">
-        <v>155</v>
-      </c>
-      <c r="U2" t="s">
-        <v>156</v>
-      </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>34</v>
-      </c>
-      <c r="W2" t="s">
-        <v>35</v>
       </c>
       <c r="X2" s="3">
         <v>45897</v>
@@ -1395,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>27</v>
@@ -1437,25 +1441,25 @@
         <v>30</v>
       </c>
       <c r="P3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q3" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>38</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>39</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
+        <v>155</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="V3" t="s">
         <v>40</v>
-      </c>
-      <c r="T3" t="s">
-        <v>157</v>
-      </c>
-      <c r="U3" t="s">
-        <v>158</v>
-      </c>
-      <c r="V3" t="s">
-        <v>41</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1475,7 +1479,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -1508,7 +1512,7 @@
         <v>29.405495299999998</v>
       </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1">
         <v>0.43356734718966405</v>
@@ -1517,25 +1521,25 @@
         <v>30</v>
       </c>
       <c r="P4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>45</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>46</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
+        <v>156</v>
+      </c>
+      <c r="U4" t="s">
+        <v>157</v>
+      </c>
+      <c r="V4" t="s">
         <v>47</v>
-      </c>
-      <c r="T4" t="s">
-        <v>159</v>
-      </c>
-      <c r="U4" t="s">
-        <v>160</v>
-      </c>
-      <c r="V4" t="s">
-        <v>48</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1555,10 +1559,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
       </c>
       <c r="D5" t="s">
         <v>28</v>
@@ -1588,34 +1592,34 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1">
         <v>0.79550498220506516</v>
       </c>
       <c r="O5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P5" t="s">
         <v>52</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" t="s">
         <v>53</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>54</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
+        <v>158</v>
+      </c>
+      <c r="U5" t="s">
+        <v>159</v>
+      </c>
+      <c r="V5" t="s">
         <v>55</v>
-      </c>
-      <c r="T5" t="s">
-        <v>161</v>
-      </c>
-      <c r="U5" t="s">
-        <v>162</v>
-      </c>
-      <c r="V5" t="s">
-        <v>56</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1624,7 +1628,7 @@
         <v>45897</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z5" s="1">
         <v>-0.17633052574372954</v>
@@ -1635,10 +1639,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1668,37 +1672,37 @@
         <v>0</v>
       </c>
       <c r="M6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N6" s="1">
         <v>0.16546413092938081</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q6">
         <v>68</v>
       </c>
       <c r="R6" t="s">
+        <v>60</v>
+      </c>
+      <c r="S6" t="s">
         <v>61</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
+        <v>160</v>
+      </c>
+      <c r="U6" t="s">
+        <v>161</v>
+      </c>
+      <c r="V6" t="s">
         <v>62</v>
       </c>
-      <c r="T6" t="s">
-        <v>163</v>
-      </c>
-      <c r="U6" t="s">
-        <v>164</v>
-      </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>63</v>
-      </c>
-      <c r="W6" t="s">
-        <v>64</v>
       </c>
       <c r="X6" s="3">
         <v>45897</v>
@@ -1715,13 +1719,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2">
         <v>1265.69472</v>
@@ -1748,34 +1752,34 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N7" s="1">
         <v>0.34405265196966295</v>
       </c>
       <c r="O7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" t="s">
         <v>68</v>
-      </c>
-      <c r="P7" t="s">
-        <v>69</v>
       </c>
       <c r="Q7">
         <v>26</v>
       </c>
       <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
         <v>70</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
+        <v>162</v>
+      </c>
+      <c r="U7" t="s">
+        <v>163</v>
+      </c>
+      <c r="V7" t="s">
         <v>71</v>
-      </c>
-      <c r="T7" t="s">
-        <v>165</v>
-      </c>
-      <c r="U7" t="s">
-        <v>166</v>
-      </c>
-      <c r="V7" t="s">
-        <v>72</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1784,10 +1788,10 @@
         <v>45897</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
@@ -1795,13 +1799,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="2">
         <v>2186.2800000000002</v>
@@ -1828,34 +1832,34 @@
         <v>0</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8" s="1">
         <v>7.4441517097535534E-2</v>
       </c>
       <c r="O8" t="s">
+        <v>74</v>
+      </c>
+      <c r="P8" t="s">
         <v>75</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
+        <v>164</v>
+      </c>
+      <c r="R8" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" t="s">
-        <v>167</v>
-      </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>77</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
+        <v>165</v>
+      </c>
+      <c r="U8" t="s">
+        <v>166</v>
+      </c>
+      <c r="V8" t="s">
         <v>78</v>
-      </c>
-      <c r="T8" t="s">
-        <v>168</v>
-      </c>
-      <c r="U8" t="s">
-        <v>169</v>
-      </c>
-      <c r="V8" t="s">
-        <v>79</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -1875,7 +1879,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1908,7 +1912,7 @@
         <v>67.878</v>
       </c>
       <c r="M9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1">
         <v>0.26727680470462245</v>
@@ -1917,25 +1921,25 @@
         <v>30</v>
       </c>
       <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
         <v>81</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>82</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="T9" t="s">
+        <v>167</v>
+      </c>
+      <c r="U9" t="s">
+        <v>168</v>
+      </c>
+      <c r="V9" t="s">
         <v>83</v>
-      </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-      <c r="T9" t="s">
-        <v>170</v>
-      </c>
-      <c r="U9" t="s">
-        <v>171</v>
-      </c>
-      <c r="V9" t="s">
-        <v>85</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -1955,13 +1959,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E10" s="2">
         <v>1372.5805700000001</v>
@@ -1988,37 +1992,37 @@
         <v>0</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N10" s="1">
         <v>0.28930934830295613</v>
       </c>
       <c r="O10" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" t="s">
         <v>89</v>
       </c>
-      <c r="P10" t="s">
+      <c r="R10" t="s">
         <v>90</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="S10" t="s">
         <v>91</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
+        <v>169</v>
+      </c>
+      <c r="U10" t="s">
+        <v>170</v>
+      </c>
+      <c r="V10" t="s">
         <v>92</v>
       </c>
-      <c r="S10" t="s">
-        <v>93</v>
-      </c>
-      <c r="T10" t="s">
-        <v>172</v>
-      </c>
-      <c r="U10" t="s">
-        <v>173</v>
-      </c>
-      <c r="V10" t="s">
-        <v>94</v>
-      </c>
       <c r="W10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="X10" s="3">
         <v>45898</v>
@@ -2035,13 +2039,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" s="2">
         <v>5337.5</v>
@@ -2068,37 +2072,37 @@
         <v>0</v>
       </c>
       <c r="M11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="N11" s="1">
         <v>0.6428571428571429</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P11" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>96</v>
+      </c>
+      <c r="R11" t="s">
         <v>97</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="S11" t="s">
         <v>98</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
+        <v>172</v>
+      </c>
+      <c r="U11" t="s">
+        <v>173</v>
+      </c>
+      <c r="V11" t="s">
+        <v>92</v>
+      </c>
+      <c r="W11" t="s">
         <v>99</v>
-      </c>
-      <c r="S11" t="s">
-        <v>100</v>
-      </c>
-      <c r="T11" t="s">
-        <v>175</v>
-      </c>
-      <c r="U11" t="s">
-        <v>176</v>
-      </c>
-      <c r="V11" t="s">
-        <v>94</v>
-      </c>
-      <c r="W11" t="s">
-        <v>101</v>
       </c>
       <c r="X11" s="3">
         <v>45898</v>
@@ -2115,13 +2119,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" t="s">
         <v>102</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>104</v>
       </c>
       <c r="E12" s="2">
         <v>680.69294500000001</v>
@@ -2148,7 +2152,7 @@
         <v>-2.0912500000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N12" s="1">
         <v>0.35236380097930942</v>
@@ -2157,25 +2161,25 @@
         <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>15</v>
       </c>
       <c r="R12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="T12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="U12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="V12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2195,13 +2199,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="2">
         <v>1045.762712</v>
@@ -2228,34 +2232,34 @@
         <v>0</v>
       </c>
       <c r="M13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N13" s="1">
         <v>0.6783589862783328</v>
       </c>
       <c r="O13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q13" t="s">
         <v>111</v>
       </c>
-      <c r="P13" t="s">
+      <c r="R13" t="s">
         <v>112</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="S13" t="s">
         <v>113</v>
       </c>
-      <c r="R13" t="s">
+      <c r="T13" t="s">
+        <v>176</v>
+      </c>
+      <c r="U13" t="s">
         <v>114</v>
       </c>
-      <c r="S13" t="s">
-        <v>115</v>
-      </c>
-      <c r="T13" t="s">
-        <v>179</v>
-      </c>
-      <c r="U13" t="s">
-        <v>116</v>
-      </c>
       <c r="V13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2264,7 +2268,7 @@
         <v>45898</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z13" s="1">
         <v>0.18000000439604424</v>
@@ -2275,13 +2279,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E14" s="2">
         <v>2019.8763390000001</v>
@@ -2308,34 +2312,34 @@
         <v>0</v>
       </c>
       <c r="M14" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="N14" s="1">
         <v>0.12168138848622852</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>117</v>
+      </c>
+      <c r="R14" t="s">
         <v>118</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="S14" t="s">
         <v>119</v>
       </c>
-      <c r="R14" t="s">
+      <c r="T14" t="s">
         <v>120</v>
       </c>
-      <c r="S14" t="s">
+      <c r="U14" t="s">
         <v>121</v>
       </c>
-      <c r="T14" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" t="s">
-        <v>123</v>
-      </c>
       <c r="V14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2355,13 +2359,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2">
         <v>2903.04126</v>
@@ -2388,34 +2392,34 @@
         <v>0</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N15" s="1">
         <v>0.59318156563162339</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>6</v>
       </c>
       <c r="R15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="T15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="U15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="V15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2435,13 +2439,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="2">
         <v>1047.3630700000001</v>
@@ -2468,34 +2472,34 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="N16" s="1">
         <v>0.15559721329490833</v>
       </c>
       <c r="O16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>23</v>
       </c>
       <c r="R16" t="s">
+        <v>131</v>
+      </c>
+      <c r="S16" t="s">
+        <v>132</v>
+      </c>
+      <c r="T16" t="s">
+        <v>179</v>
+      </c>
+      <c r="U16" t="s">
+        <v>180</v>
+      </c>
+      <c r="V16" t="s">
         <v>133</v>
-      </c>
-      <c r="S16" t="s">
-        <v>134</v>
-      </c>
-      <c r="T16" t="s">
-        <v>182</v>
-      </c>
-      <c r="U16" t="s">
-        <v>183</v>
-      </c>
-      <c r="V16" t="s">
-        <v>135</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2504,7 +2508,7 @@
         <v>45898</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z16" s="1">
         <v>-9.5509698226650848</v>
@@ -2515,13 +2519,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" s="2">
         <v>669.18430290000003</v>
@@ -2548,31 +2552,31 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N17" s="1">
         <v>0.86323800542931128</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Q17">
         <v>1</v>
       </c>
       <c r="R17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="S17" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="T17" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="U17" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2595,13 +2599,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E18" s="2">
         <v>437.16408000000001</v>
@@ -2628,7 +2632,7 @@
         <v>72.569237299999998</v>
       </c>
       <c r="M18" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N18" s="1">
         <v>0.82583333356208044</v>
@@ -2637,22 +2641,22 @@
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>227</v>
       </c>
       <c r="R18" t="s">
+        <v>142</v>
+      </c>
+      <c r="S18" t="s">
+        <v>143</v>
+      </c>
+      <c r="T18" t="s">
+        <v>184</v>
+      </c>
+      <c r="U18" t="s">
         <v>144</v>
-      </c>
-      <c r="S18" t="s">
-        <v>145</v>
-      </c>
-      <c r="T18" t="s">
-        <v>187</v>
-      </c>
-      <c r="U18" t="s">
-        <v>146</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2667,7 +2671,7 @@
         <v>0.62624581052110095</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.25">
@@ -2675,13 +2679,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E19" s="2">
         <v>171.31355932203391</v>
@@ -2708,31 +2712,31 @@
         <v>0</v>
       </c>
       <c r="M19" t="s">
+        <v>147</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
+        <v>148</v>
+      </c>
+      <c r="P19" t="s">
         <v>149</v>
       </c>
-      <c r="N19" s="1">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
+      <c r="Q19" t="s">
         <v>150</v>
       </c>
-      <c r="P19" t="s">
+      <c r="R19" t="s">
         <v>151</v>
       </c>
-      <c r="Q19" t="s">
+      <c r="S19" t="s">
         <v>152</v>
       </c>
-      <c r="R19" t="s">
-        <v>153</v>
-      </c>
-      <c r="S19" t="s">
-        <v>154</v>
-      </c>
       <c r="T19" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2744,10 +2748,10 @@
         <v>45898</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
